--- a/Documentations/_PROGRESS/!PROGRESS.xlsx
+++ b/Documentations/_PROGRESS/!PROGRESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024-2025\Vizsgaremek\aromas-cubanos\Plan_and_description\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024-2025\Vizsgaremek AZ IGAZI\aromas-cubanos\Documentations\_PROGRESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36ACE5-6E8D-4997-9847-C07110C415CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B74E372-D6E1-4E68-9483-B34792F2ED5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -190,24 +190,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,16 +210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +502,7 @@
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,12 +536,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -566,117 +551,117 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -686,77 +671,77 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
